--- a/biology/Zoologie/Chloreuptychia_marica/Chloreuptychia_marica.xlsx
+++ b/biology/Zoologie/Chloreuptychia_marica/Chloreuptychia_marica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia marica est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae, de la tribu des Satyrini, de la sous-tribu des Euptychiina.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia marica a été décrit par l'entomologiste Gustav Weymer en 1911, sous le nom initial de Euptychia marica[1].
-Nom vernaculaire
-Chloreuptychia marica se nomme Marica Blue Ringlet en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia marica a été décrit par l'entomologiste Gustav Weymer en 1911, sous le nom initial de Euptychia marica.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia marica se nomme Marica Blue Ringlet en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia marica est un papillon au dessus de couleur beige nacré avec les ocelles du revers visibles en transparence sous forme de taches.
 Le revers est de couleur bleu clair nacré avec deux lignes marron qui limitent les aires discale et postdiscale. Les ailes antérieures présentent un petit ocelle foncé cerné de jaune et pupillé marque l'apex au bout d'une bande submarginale foncée, et les ailes postérieures sont marquées d'une ligne d'ocelles cerclés de jaune dont seuls celui proche de l'angle anal et un gros et un petit proches de l'apex sont foncés.
@@ -552,38 +603,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chloreuptychia_marica</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_marica</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Poaceae[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -605,16 +624,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Poaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia marica est présent en Équateur, au Pérou et au Brésil[1].
-Biotope
-Chloreuptychia marica réside dans la forêt humide[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia marica est présent en Équateur, au Pérou et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia marica réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_marica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
